--- a/문서/Gaia 진행사항 및 진행계획.xlsx
+++ b/문서/Gaia 진행사항 및 진행계획.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,13 +138,29 @@
   </si>
   <si>
     <t>날씨가 각 식물에 어떻게 영향을 미치는지 좀 더 구체화할 필요가 있음.(식물에 따라 더운지방에 사는 식물과 추운 지방에 사는 식물과 같이 차이가 있을 수 있음.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태우,조수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 디비 설계, 코드파악 &amp; 구매할 품목의 가격 임시로 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,8 +217,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -262,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,7 +353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -508,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -530,6 +569,7 @@
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="71.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -551,7 +591,9 @@
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -669,7 +711,13 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">

--- a/문서/Gaia 진행사항 및 진행계획.xlsx
+++ b/문서/Gaia 진행사항 및 진행계획.xlsx
@@ -153,7 +153,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 디비 설계, 코드파악 &amp; 구매할 품목의 가격 임시로 저장</t>
+    <t>DB 아이템 수량관련코드 변경, 앱 소스에서도 코드수정, 그러나 값이 바뀌지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="B5:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/문서/Gaia 진행사항 및 진행계획.xlsx
+++ b/문서/Gaia 진행사항 및 진행계획.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Round\Desktop\github\reGaia\문서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="9375"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +159,22 @@
   </si>
   <si>
     <t>DB 아이템 수량관련코드 변경, 앱 소스에서도 코드수정, 그러나 값이 바뀌지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 제작 의뢰서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +198,52 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,12 +255,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,8 +282,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -547,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H19"/>
+  <dimension ref="B5:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -608,7 +689,7 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -625,7 +706,7 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -642,7 +723,7 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -659,7 +740,7 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -676,7 +757,7 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -693,7 +774,7 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -710,7 +791,7 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -733,7 +814,7 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -753,7 +834,7 @@
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -773,7 +854,7 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -790,11 +871,11 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -807,11 +888,11 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>13</v>
       </c>
@@ -824,11 +905,11 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>14</v>
       </c>
@@ -841,11 +922,25 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Gaia 진행사항 및 진행계획.xlsx
+++ b/문서/Gaia 진행사항 및 진행계획.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Round\Desktop\github\reGaia\문서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="9375"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 및 관리 기능이 각 식물에 어떻게 영향을 미치는지 좀 더 구체화할 필요 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Overlay Screen에서 식물 클릭 시, 외부 관리 기능 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +166,26 @@
   </si>
   <si>
     <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의를 통해 기본적인 내용상의, 기초값 정하기 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 받아올 포멧완성, 데이터연동, 서버쪽 코드남음 코드점검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태우,조수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진연주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -792,13 +803,13 @@
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -814,11 +825,14 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -829,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -838,7 +852,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -849,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -866,13 +880,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -883,13 +903,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -900,13 +923,16 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -917,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -926,21 +952,21 @@
         <v>18</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Gaia 진행사항 및 진행계획.xlsx
+++ b/문서/Gaia 진행사항 및 진행계획.xlsx
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB 아이템 수량관련코드 변경, 앱 소스에서도 코드수정, 그러나 값이 바뀌지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI 제작 의뢰서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팀원전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터를 받아올 포멧완성, 데이터연동, 서버쪽 코드남음 코드점검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>진연주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임준혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈발 끝났다!!!!!!!!!!!! 가아니라 또 문제생김 ㅎㅎ 꽃사줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성완료, 보내야됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,11 +802,11 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>31</v>
@@ -829,10 +829,10 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -889,10 +889,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -928,12 +928,10 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
@@ -957,16 +955,19 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Gaia 진행사항 및 진행계획.xlsx
+++ b/문서/Gaia 진행사항 및 진행계획.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Round\Desktop\backup\github\reGaia\문서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="9375"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,15 +182,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임준혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슈발 끝났다!!!!!!!!!!!! 가아니라 또 문제생김 ㅎㅎ 꽃사줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작성완료, 보내야됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보고서 작성 및 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진연주, 김태우, 조수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H20"/>
+  <dimension ref="B5:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +690,7 @@
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="71.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -806,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>31</v>
@@ -892,7 +921,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -908,8 +937,8 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>29</v>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -954,6 +983,9 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
@@ -964,10 +996,41 @@
         <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
